--- a/testJS/data/students_info_updated_09_06_2016.xlsx
+++ b/testJS/data/students_info_updated_09_06_2016.xlsx
@@ -12,12 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="cs_5331_004_enrollment" localSheetId="0">Sheet1!$A$1:$G$9</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -32,26 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="cs_5331_004_enrollment" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr sourceFile="C:\Users\DELL 1\Desktop\TexasTech\Notes\Fall Semi 2016\TA Assignments\CS 5331-004\cs_5331_004_enrollment.csv">
-      <textFields count="7">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
   <si>
     <t>Fullname</t>
   </si>
@@ -74,21 +54,12 @@
     <t>ResearchInterest</t>
   </si>
   <si>
-    <t>Reynaldo Garcia</t>
+    <t>MSSE</t>
   </si>
   <si>
     <t>Bachelors</t>
   </si>
   <si>
-    <t>https://raygar.github.io/</t>
-  </si>
-  <si>
-    <t>Reynaldo.Garcia@ttu.edu</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Athaa Bader M Alotaibi</t>
   </si>
   <si>
@@ -177,66 +148,364 @@
   </si>
   <si>
     <t>Ezio</t>
+  </si>
+  <si>
+    <t>Olisa Omekam</t>
+  </si>
+  <si>
+    <t>Olisa.Omekam@ttu.edu</t>
+  </si>
+  <si>
+    <t>Joyelle Woodson</t>
+  </si>
+  <si>
+    <t>Joyelle.Woodson@ttu.edu</t>
+  </si>
+  <si>
+    <t>JoyelleWoodson.jpg</t>
+  </si>
+  <si>
+    <t>joyellealina.github.io</t>
+  </si>
+  <si>
+    <t>Alexandre Soares da Silva</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
+  </si>
+  <si>
+    <t>Alexandre.Soares-Da-Silva@ttu.edu</t>
+  </si>
+  <si>
+    <t>Soares_da_Silva_Alexandre.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/alexandresoaresilva/VR_class</t>
+  </si>
+  <si>
+    <t>big_Al</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Luis Rausseo</t>
+  </si>
+  <si>
+    <t>Luis.Rausseo@ttu.edu</t>
+  </si>
+  <si>
+    <t>Luis-Rausseo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/luisrausseo</t>
+  </si>
+  <si>
+    <t>lrausseo</t>
+  </si>
+  <si>
+    <t>Tien Dang</t>
+  </si>
+  <si>
+    <t>tien.dang@ttu.edu</t>
+  </si>
+  <si>
+    <t>https://sksdow.github.io/Projects-and-Qualifications/</t>
+  </si>
+  <si>
+    <t>Rin</t>
+  </si>
+  <si>
+    <t>Justin Wright</t>
+  </si>
+  <si>
+    <t>https://github.com/justinmwright</t>
+  </si>
+  <si>
+    <t>Ghidorah</t>
+  </si>
+  <si>
+    <t>Mayur Maheshkumar Bhakta Bhakta</t>
+  </si>
+  <si>
+    <t>https://github.com/mBhakta95/Virtual-Reality</t>
+  </si>
+  <si>
+    <t>MBK</t>
+  </si>
+  <si>
+    <t>mayur.bhakta@ttu.edu</t>
+  </si>
+  <si>
+    <t>Mayur.jpg</t>
+  </si>
+  <si>
+    <t>Gantaphon Chalumporn</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>G.Chalumporn@ttu.edu</t>
+  </si>
+  <si>
+    <t>Chalumporn.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/gchalump/CS5331-Virtual-Reality-TTU</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Cheol Hwan Im</t>
+  </si>
+  <si>
+    <t>Cheol-Hwan.Im@ttu.edu</t>
+  </si>
+  <si>
+    <t>Cheol.JPG</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Wesley Scott</t>
+  </si>
+  <si>
+    <t>Wesley.Scott@ttu.edu</t>
+  </si>
+  <si>
+    <t>Wesley.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/WesScott</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t>https://github.com/prd90/CS-5331-Virtual-Reality</t>
+  </si>
+  <si>
+    <t>Prerit.Datta@ttu.edu</t>
+  </si>
+  <si>
+    <t>Prerit_Datta.jpg</t>
+  </si>
+  <si>
+    <t>predat</t>
+  </si>
+  <si>
+    <t>Lino Abiel Virgen Gracia</t>
+  </si>
+  <si>
+    <t>Master (MSSE)</t>
+  </si>
+  <si>
+    <t>Lino.Virgen@ttu.edu</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>github.com/lvrg12</t>
+  </si>
+  <si>
+    <t>VirgenGraciaLino_1.jpg</t>
+  </si>
+  <si>
+    <t>xujia wu</t>
+  </si>
+  <si>
+    <t>Xujia.Wu@ttu.edu</t>
+  </si>
+  <si>
+    <t>xujia.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/carolynwu</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Tien.JPG</t>
+  </si>
+  <si>
+    <t>omekam.png</t>
+  </si>
+  <si>
+    <t>Oo</t>
+  </si>
+  <si>
+    <t>Simon Menbere Woldemichael</t>
+  </si>
+  <si>
+    <t>Simon.Woldemichael@ttu.edu</t>
+  </si>
+  <si>
+    <t>Simon Woldemichael.jpg</t>
+  </si>
+  <si>
+    <t>swoldemi.github.io</t>
+  </si>
+  <si>
+    <t>Sy</t>
+  </si>
+  <si>
+    <t>Trent Myers</t>
+  </si>
+  <si>
+    <t>Trent.Myers@ttu.edu</t>
+  </si>
+  <si>
+    <t>Trent.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/Trentm95</t>
+  </si>
+  <si>
+    <t>Rusty Shackleford</t>
+  </si>
+  <si>
+    <t>Jordan Coe</t>
+  </si>
+  <si>
+    <t>Jordan.J.Coe@ttu.edu</t>
+  </si>
+  <si>
+    <t>Jordan.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/JuJoCoe/Virtual-Reality-CS-4331.git</t>
+  </si>
+  <si>
+    <t>JJC</t>
+  </si>
+  <si>
+    <t>Derek Fritz</t>
+  </si>
+  <si>
+    <t>Derek.Fritz@ttu.edu</t>
+  </si>
+  <si>
+    <t>Derek.png</t>
+  </si>
+  <si>
+    <t>https://github.com/defritz</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Christine Huber</t>
+  </si>
+  <si>
+    <t>https://github.com/christine-elise</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Christine.Huber@ttu.edu</t>
+  </si>
+  <si>
+    <t>Christine.jpg</t>
+  </si>
+  <si>
+    <t>Megan Taylor</t>
+  </si>
+  <si>
+    <t>https://github.com/mktaylor5</t>
+  </si>
+  <si>
+    <t>Megan.Taylor@ttu.edu</t>
+  </si>
+  <si>
+    <t>Megan.png</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>Jessica Hao</t>
+  </si>
+  <si>
+    <t>Jessica.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/hujiku9/VR-Designing.git</t>
+  </si>
+  <si>
+    <t>JJJJ</t>
+  </si>
+  <si>
+    <t>Yanan.Hao@ttu.edu</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Prerit Datta</t>
+  </si>
+  <si>
+    <t>Matthew Jordan</t>
+  </si>
+  <si>
+    <t>https://github.com/Mattjordan29</t>
+  </si>
+  <si>
+    <t>R11033860</t>
+  </si>
+  <si>
+    <t>Matt.Jordan@ttu.edu</t>
+  </si>
+  <si>
+    <t>Matthew.png</t>
+  </si>
+  <si>
+    <t>Kevon Manahan</t>
+  </si>
+  <si>
+    <t>http://www.myweb.ttu.edu/kemanaha</t>
+  </si>
+  <si>
+    <t>SuperKev</t>
+  </si>
+  <si>
+    <t>Kevon.JPG</t>
+  </si>
+  <si>
+    <t>Kevon.Manahan@ttu.edu</t>
+  </si>
+  <si>
+    <t>Eddie Garcia</t>
+  </si>
+  <si>
+    <t>Eddie.Garcia@ttu.edu</t>
+  </si>
+  <si>
+    <t>EddieGarcia.PNG</t>
+  </si>
+  <si>
+    <t>github: gar37012</t>
+  </si>
+  <si>
+    <t>gar37012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -246,8 +515,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,28 +539,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -330,10 +586,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cs_5331_004_enrollment" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,332 +875,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" customWidth="1"/>
-    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="96.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="H1" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="F26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
+    </row>
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
+      <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="E30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G15">
-    <sortCondition ref="B2:B15" customList="Computer Science,PhD"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -962,16 +1677,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testJS/data/students_info_updated_09_06_2016.xlsx
+++ b/testJS/data/students_info_updated_09_06_2016.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
   <si>
     <t>Fullname</t>
   </si>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t>gar37012</t>
+  </si>
+  <si>
+    <t>David Cooper</t>
+  </si>
+  <si>
+    <t>David.P.Cooper@ttu.edu</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>David.JPG</t>
   </si>
 </sst>
 </file>
@@ -875,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1056,7 @@
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -1053,24 +1065,22 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -1079,24 +1089,24 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -1105,76 +1115,76 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -1183,24 +1193,24 @@
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1209,24 +1219,24 @@
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -1235,24 +1245,24 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -1261,20 +1271,24 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -1285,74 +1299,70 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
@@ -1364,21 +1374,21 @@
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -1387,24 +1397,24 @@
         <v>8</v>
       </c>
       <c r="D20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1416,21 +1426,21 @@
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
@@ -1439,24 +1449,24 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -1468,73 +1478,73 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
@@ -1543,24 +1553,24 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>19</v>
@@ -1569,96 +1579,122 @@
         <v>8</v>
       </c>
       <c r="D27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>98</v>
       </c>
     </row>

--- a/testJS/data/students_info_updated_09_06_2016.xlsx
+++ b/testJS/data/students_info_updated_09_06_2016.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>Fullname</t>
   </si>
@@ -505,6 +505,42 @@
   </si>
   <si>
     <t>David.JPG</t>
+  </si>
+  <si>
+    <t>Yong Wu</t>
+  </si>
+  <si>
+    <t>https://github.com/yongwu2017</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Yong.Wu@ttu.edu</t>
+  </si>
+  <si>
+    <t>YongWu.jpeg</t>
+  </si>
+  <si>
+    <t>Amitsingh Pardeshi</t>
+  </si>
+  <si>
+    <t>Amitsingh.Pardeshi@ttu.edu</t>
+  </si>
+  <si>
+    <t>Amit.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/pardeshiamitsingh</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>3tb</t>
+  </si>
+  <si>
+    <t>Fox</t>
   </si>
 </sst>
 </file>
@@ -887,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,81 +968,85 @@
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -1018,19 +1058,21 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -1039,24 +1081,22 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -1065,22 +1105,24 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -1089,24 +1131,22 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -1115,24 +1155,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -1141,76 +1181,76 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1219,24 +1259,24 @@
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -1245,24 +1285,24 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -1271,24 +1311,24 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -1297,20 +1337,24 @@
         <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -1321,74 +1365,70 @@
       <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -1400,21 +1440,21 @@
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1423,24 +1463,24 @@
         <v>8</v>
       </c>
       <c r="D21" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
@@ -1452,21 +1492,21 @@
         <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -1475,24 +1515,24 @@
         <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1504,73 +1544,73 @@
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>19</v>
@@ -1579,24 +1619,24 @@
         <v>8</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
@@ -1605,97 +1645,149 @@
         <v>8</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/testJS/data/students_info_updated_09_06_2016.xlsx
+++ b/testJS/data/students_info_updated_09_06_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="179">
   <si>
     <t>Fullname</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ResearchInterest</t>
   </si>
   <si>
-    <t>MSSE</t>
-  </si>
-  <si>
     <t>Bachelors</t>
   </si>
   <si>
@@ -541,6 +538,36 @@
   </si>
   <si>
     <t>Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Otterbine </t>
+  </si>
+  <si>
+    <t>Cody.Otterbine@ttu.edu</t>
+  </si>
+  <si>
+    <t>Cody.jpg</t>
+  </si>
+  <si>
+    <t>https://dauntlessdash.github.io/Personal-Website/</t>
+  </si>
+  <si>
+    <t>Dauntless</t>
+  </si>
+  <si>
+    <t>Darien Sokolov</t>
+  </si>
+  <si>
+    <t>darien.sokolov@ttu.edu</t>
+  </si>
+  <si>
+    <t>https://github.com/XT3RM1N8R</t>
+  </si>
+  <si>
+    <t>Darien.jpg</t>
+  </si>
+  <si>
+    <t>Darien</t>
   </si>
 </sst>
 </file>
@@ -923,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,623 +990,623 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>1.5</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>5.5</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1587,207 +1614,259 @@
         <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2">
         <v>8</v>
       </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/testJS/data/students_info_updated_09_06_2016.xlsx
+++ b/testJS/data/students_info_updated_09_06_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="191">
   <si>
     <t>Fullname</t>
   </si>
@@ -568,13 +568,49 @@
   </si>
   <si>
     <t>Darien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Acosta </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/michael-acosta-b8472414a/</t>
+  </si>
+  <si>
+    <t>M1221</t>
+  </si>
+  <si>
+    <t>Michael.Acosta@ttu.edu</t>
+  </si>
+  <si>
+    <t>Michael.png</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Reynaldo Garcia</t>
+  </si>
+  <si>
+    <t>Reynaldo.Garcia@ttu.edu</t>
+  </si>
+  <si>
+    <t>Reynaldo.png</t>
+  </si>
+  <si>
+    <t>https://raygar.github.io/</t>
+  </si>
+  <si>
+    <t>qcf4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +628,21 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,15 +665,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -950,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -995,111 +1052,111 @@
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -1111,19 +1168,21 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1132,24 +1191,22 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1158,24 +1215,24 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -1184,24 +1241,24 @@
         <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1210,22 +1267,24 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -1234,24 +1293,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1260,24 +1317,24 @@
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -1286,76 +1343,76 @@
         <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -1364,24 +1421,24 @@
         <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -1390,24 +1447,24 @@
         <v>7</v>
       </c>
       <c r="D17" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -1416,24 +1473,24 @@
         <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -1442,20 +1499,24 @@
         <v>7</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -1466,74 +1527,70 @@
       <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -1545,21 +1602,21 @@
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -1568,24 +1625,24 @@
         <v>7</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -1597,21 +1654,21 @@
         <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -1620,24 +1677,24 @@
         <v>7</v>
       </c>
       <c r="D26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -1649,73 +1706,73 @@
         <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
@@ -1724,24 +1781,24 @@
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
@@ -1750,50 +1807,50 @@
         <v>7</v>
       </c>
       <c r="D31" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>18</v>
@@ -1802,70 +1859,122 @@
         <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
         <v>3</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1876,12 +1985,326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>43118</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testJS/data/students_info_updated_09_06_2016.xlsx
+++ b/testJS/data/students_info_updated_09_06_2016.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
   <si>
     <t>Fullname</t>
   </si>
@@ -604,6 +604,24 @@
   </si>
   <si>
     <t>qcf4</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Blechman </t>
+  </si>
+  <si>
+    <t>Scott.jpg</t>
+  </si>
+  <si>
+    <t>Scott.Blechman@ttu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://scottblechman.me/cs5331/ </t>
+  </si>
+  <si>
+    <t>Scott</t>
   </si>
 </sst>
 </file>
@@ -1007,974 +1025,1046 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
         <v>1.5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
         <v>5.5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
+      <c r="B12" s="2">
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
         <v>3.5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
         <v>4.5</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
+      <c r="B19" s="2">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
         <v>6</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
         <v>4</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>8</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2">
         <v>2</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
         <v>4.5</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
         <v>3</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1985,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2304,6 +2394,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="29" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>43123</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testJS/data/students_info_updated_09_06_2016.xlsx
+++ b/testJS/data/students_info_updated_09_06_2016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinhtngu/Documents/GitHub/CS5331-VirtualReality/testJS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iDVLab\Documents\GitHub\CS5331-VirtualReality\testJS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
   <si>
     <t>Fullname</t>
   </si>
@@ -622,13 +622,28 @@
   </si>
   <si>
     <t>Scott</t>
+  </si>
+  <si>
+    <t>Travis Ahlberg</t>
+  </si>
+  <si>
+    <t>Travis.Ahlberg@ttu.edu</t>
+  </si>
+  <si>
+    <t>https://github.com/ahlbergta</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Travis Ahlberg.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +680,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -683,21 +706,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -725,7 +751,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -733,6 +759,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1024,27 +1053,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>179</v>
       </c>
@@ -1100,7 +1129,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>162</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1154,7 +1183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1210,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1237,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -1233,7 +1262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
@@ -1260,7 +1289,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>169</v>
       </c>
@@ -1287,7 +1316,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>174</v>
       </c>
@@ -1314,7 +1343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
@@ -1339,7 +1368,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -1368,7 +1397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1395,7 +1424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>148</v>
       </c>
@@ -1422,7 +1451,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -1449,7 +1478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1476,7 +1505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
@@ -1503,7 +1532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
@@ -1530,7 +1559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1559,7 +1588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -1582,7 +1611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>143</v>
       </c>
@@ -1609,7 +1638,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -1636,7 +1665,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1663,7 +1692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1690,7 +1719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -1717,7 +1746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>126</v>
       </c>
@@ -1744,7 +1773,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>138</v>
       </c>
@@ -1771,7 +1800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1798,7 +1827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>137</v>
       </c>
@@ -1825,7 +1854,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>186</v>
       </c>
@@ -1852,7 +1881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -1879,7 +1908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>192</v>
       </c>
@@ -1906,7 +1935,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +1962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
@@ -1960,63 +1989,63 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="2">
-        <v>4</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>107</v>
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>109</v>
+        <v>201</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2026,24 +2055,24 @@
         <v>7</v>
       </c>
       <c r="E37" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -2053,40 +2082,72 @@
         <v>7</v>
       </c>
       <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
         <v>3</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F35" r:id="rId1" xr:uid="{229B92B6-2F76-4B06-8D21-A40743E8BFAF}"/>
+    <hyperlink ref="H35" r:id="rId2" xr:uid="{24BB007F-F844-41A5-8FD5-3B96134A379E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -2097,7 +2158,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>43118</v>
       </c>
@@ -2108,7 +2169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>43118</v>
       </c>
@@ -2119,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>43118</v>
       </c>
@@ -2130,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>43118</v>
       </c>
@@ -2141,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>43118</v>
       </c>
@@ -2152,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>43118</v>
       </c>
@@ -2163,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>43118</v>
       </c>
@@ -2174,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>43118</v>
       </c>
@@ -2185,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>43118</v>
       </c>
@@ -2196,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>43118</v>
       </c>
@@ -2207,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>43118</v>
       </c>
@@ -2218,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>43123</v>
       </c>
@@ -2229,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>43123</v>
       </c>
@@ -2240,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>43123</v>
       </c>
@@ -2251,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>43123</v>
       </c>
@@ -2262,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>43123</v>
       </c>
@@ -2273,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>43123</v>
       </c>
@@ -2284,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>43123</v>
       </c>
@@ -2295,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>43123</v>
       </c>
@@ -2306,7 +2367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>43123</v>
       </c>
@@ -2317,7 +2378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43123</v>
       </c>
@@ -2328,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43123</v>
       </c>
@@ -2339,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43123</v>
       </c>
@@ -2350,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43123</v>
       </c>
@@ -2361,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43123</v>
       </c>
@@ -2372,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43123</v>
       </c>
@@ -2383,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43123</v>
       </c>
@@ -2394,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43123</v>
       </c>
